--- a/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9649034794045285</v>
+        <v>0.9649034794045274</v>
       </c>
       <c r="D2">
-        <v>0.9893134175211017</v>
+        <v>0.9893134175211007</v>
       </c>
       <c r="E2">
-        <v>0.9752551224014504</v>
+        <v>0.9752551224014498</v>
       </c>
       <c r="F2">
-        <v>0.9397947147329546</v>
+        <v>0.9397947147329531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02964675266999</v>
+        <v>1.029646752669989</v>
       </c>
       <c r="J2">
-        <v>0.988187107319208</v>
+        <v>0.9881871073192071</v>
       </c>
       <c r="K2">
-        <v>1.000923668844998</v>
+        <v>1.000923668844997</v>
       </c>
       <c r="L2">
-        <v>0.9870703070483537</v>
+        <v>0.987070307048353</v>
       </c>
       <c r="M2">
-        <v>0.9521618053049827</v>
+        <v>0.9521618053049816</v>
       </c>
       <c r="N2">
-        <v>0.9895904463582468</v>
+        <v>0.9895904463582459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.975075845773262</v>
+        <v>0.9750758457732627</v>
       </c>
       <c r="D3">
-        <v>0.9969817313645369</v>
+        <v>0.9969817313645373</v>
       </c>
       <c r="E3">
-        <v>0.9838240849367913</v>
+        <v>0.9838240849367921</v>
       </c>
       <c r="F3">
-        <v>0.953142543303748</v>
+        <v>0.9531425433037489</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.032444491274927</v>
       </c>
       <c r="J3">
-        <v>0.9962698252106823</v>
+        <v>0.996269825210683</v>
       </c>
       <c r="K3">
         <v>1.007653377733318</v>
       </c>
       <c r="L3">
-        <v>0.9946682109092405</v>
+        <v>0.9946682109092411</v>
       </c>
       <c r="M3">
-        <v>0.9644122880413425</v>
+        <v>0.964412288041343</v>
       </c>
       <c r="N3">
-        <v>0.9976846426362275</v>
+        <v>0.9976846426362279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9813719214429671</v>
+        <v>0.9813719214429663</v>
       </c>
       <c r="D4">
         <v>1.00173062582992</v>
       </c>
       <c r="E4">
-        <v>0.9891349284169402</v>
+        <v>0.9891349284169395</v>
       </c>
       <c r="F4">
-        <v>0.961385594061132</v>
+        <v>0.9613855940611312</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.034160096935411</v>
       </c>
       <c r="J4">
-        <v>1.0012644443204</v>
+        <v>1.001264444320399</v>
       </c>
       <c r="K4">
         <v>1.011808208503315</v>
       </c>
       <c r="L4">
-        <v>0.9993662785584978</v>
+        <v>0.9993662785584974</v>
       </c>
       <c r="M4">
-        <v>0.9719735400058261</v>
+        <v>0.9719735400058253</v>
       </c>
       <c r="N4">
-        <v>1.002686354677972</v>
+        <v>1.002686354677971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9839559598791841</v>
+        <v>0.9839559598791815</v>
       </c>
       <c r="D5">
-        <v>1.003680082640866</v>
+        <v>1.003680082640864</v>
       </c>
       <c r="E5">
-        <v>0.991316155958101</v>
+        <v>0.9913161559580985</v>
       </c>
       <c r="F5">
-        <v>0.9647652205772294</v>
+        <v>0.9647652205772264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034860269996324</v>
+        <v>1.034860269996323</v>
       </c>
       <c r="J5">
-        <v>1.003312346235528</v>
+        <v>1.003312346235525</v>
       </c>
       <c r="K5">
-        <v>1.013510803512582</v>
+        <v>1.01351080351258</v>
       </c>
       <c r="L5">
-        <v>1.001293266431443</v>
+        <v>1.001293266431441</v>
       </c>
       <c r="M5">
-        <v>0.9750725395693061</v>
+        <v>0.9750725395693031</v>
       </c>
       <c r="N5">
-        <v>1.004737164848717</v>
+        <v>1.004737164848714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,34 +585,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843862974032155</v>
+        <v>0.9843862974032147</v>
       </c>
       <c r="D6">
-        <v>1.004004757077735</v>
+        <v>1.004004757077734</v>
       </c>
       <c r="E6">
-        <v>0.99167949708696</v>
+        <v>0.9916794970869595</v>
       </c>
       <c r="F6">
-        <v>0.9653278719506998</v>
+        <v>0.9653278719506985</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034976639494151</v>
+        <v>1.03497663949415</v>
       </c>
       <c r="J6">
-        <v>1.003653278622063</v>
+        <v>1.003653278622062</v>
       </c>
       <c r="K6">
-        <v>1.013794189868574</v>
+        <v>1.013794189868573</v>
       </c>
       <c r="L6">
         <v>1.001614107807498</v>
       </c>
       <c r="M6">
-        <v>0.9755884043374853</v>
+        <v>0.9755884043374842</v>
       </c>
       <c r="N6">
         <v>1.005078581398346</v>
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9814066894571367</v>
+        <v>0.9814066894571376</v>
       </c>
       <c r="D7">
         <v>1.001756854248304</v>
       </c>
       <c r="E7">
-        <v>0.9891642707146894</v>
+        <v>0.98916427071469</v>
       </c>
       <c r="F7">
-        <v>0.9614310793627628</v>
+        <v>0.9614310793627646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034169533497411</v>
+        <v>1.034169533497412</v>
       </c>
       <c r="J7">
-        <v>1.001292006636109</v>
+        <v>1.00129200663611</v>
       </c>
       <c r="K7">
-        <v>1.011831127379822</v>
+        <v>1.011831127379823</v>
       </c>
       <c r="L7">
-        <v>0.9993922108820791</v>
+        <v>0.9993922108820799</v>
       </c>
       <c r="M7">
-        <v>0.9720152528968062</v>
+        <v>0.9720152528968079</v>
       </c>
       <c r="N7">
-        <v>1.002713956135331</v>
+        <v>1.002713956135332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9684041932960671</v>
+        <v>0.9684041932960664</v>
       </c>
       <c r="D8">
-        <v>0.9919516671755548</v>
+        <v>0.9919516671755545</v>
       </c>
       <c r="E8">
-        <v>0.9782023972574899</v>
+        <v>0.9782023972574897</v>
       </c>
       <c r="F8">
-        <v>0.9443927933003446</v>
+        <v>0.9443927933003436</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.030612914462828</v>
       </c>
       <c r="J8">
-        <v>0.9909703826361912</v>
+        <v>0.9909703826361906</v>
       </c>
       <c r="K8">
-        <v>1.003241773332688</v>
+        <v>1.003241773332687</v>
       </c>
       <c r="L8">
-        <v>0.9896859567903294</v>
+        <v>0.9896859567903291</v>
       </c>
       <c r="M8">
-        <v>0.9563826799926609</v>
+        <v>0.9563826799926599</v>
       </c>
       <c r="N8">
-        <v>0.992377674245426</v>
+        <v>0.9923776742454254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429949679665821</v>
+        <v>0.9429949679665834</v>
       </c>
       <c r="D9">
-        <v>0.972825926125385</v>
+        <v>0.9728259261253863</v>
       </c>
       <c r="E9">
-        <v>0.9568510350153436</v>
+        <v>0.956851035015345</v>
       </c>
       <c r="F9">
-        <v>0.9108854942975481</v>
+        <v>0.9108854942975492</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.023533679476414</v>
       </c>
       <c r="J9">
-        <v>0.9707347780014801</v>
+        <v>0.9707347780014814</v>
       </c>
       <c r="K9">
-        <v>0.9863758268683502</v>
+        <v>0.9863758268683517</v>
       </c>
       <c r="L9">
-        <v>0.9706852466196517</v>
+        <v>0.9706852466196529</v>
       </c>
       <c r="M9">
-        <v>0.9256112615366173</v>
+        <v>0.9256112615366184</v>
       </c>
       <c r="N9">
-        <v>0.9721133327310776</v>
+        <v>0.972113332731079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9238390728890858</v>
+        <v>0.923839072889086</v>
       </c>
       <c r="D10">
         <v>0.9584540643312737</v>
       </c>
       <c r="E10">
-        <v>0.9408202492438311</v>
+        <v>0.9408202492438315</v>
       </c>
       <c r="F10">
-        <v>0.8853704571490917</v>
+        <v>0.8853704571490919</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.01811646194116</v>
       </c>
       <c r="J10">
-        <v>0.9554380030142565</v>
+        <v>0.9554380030142566</v>
       </c>
       <c r="K10">
         <v>0.9736162696658129</v>
       </c>
       <c r="L10">
-        <v>0.9563470595657748</v>
+        <v>0.9563470595657749</v>
       </c>
       <c r="M10">
-        <v>0.9021716134125928</v>
+        <v>0.9021716134125932</v>
       </c>
       <c r="N10">
-        <v>0.9567948345688075</v>
+        <v>0.9567948345688074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148526518206073</v>
+        <v>0.9148526518206077</v>
       </c>
       <c r="D11">
-        <v>0.9517296746761571</v>
+        <v>0.9517296746761574</v>
       </c>
       <c r="E11">
-        <v>0.9333206914473157</v>
+        <v>0.9333206914473159</v>
       </c>
       <c r="F11">
-        <v>0.8733048366568461</v>
+        <v>0.8733048366568468</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.015558545712539</v>
       </c>
       <c r="J11">
-        <v>0.9482530829274692</v>
+        <v>0.9482530829274698</v>
       </c>
       <c r="K11">
-        <v>0.9676231622576305</v>
+        <v>0.9676231622576308</v>
       </c>
       <c r="L11">
-        <v>0.9496200481823307</v>
+        <v>0.9496200481823309</v>
       </c>
       <c r="M11">
-        <v>0.891089487396815</v>
+        <v>0.8910894873968158</v>
       </c>
       <c r="N11">
-        <v>0.9495997110713752</v>
+        <v>0.949599711071376</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9113916054472311</v>
+        <v>0.9113916054472325</v>
       </c>
       <c r="D12">
-        <v>0.9491432027946539</v>
+        <v>0.949143202794655</v>
       </c>
       <c r="E12">
-        <v>0.9304359747958584</v>
+        <v>0.9304359747958598</v>
       </c>
       <c r="F12">
-        <v>0.8686391963525608</v>
+        <v>0.8686391963525627</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014571162439905</v>
+        <v>1.014571162439906</v>
       </c>
       <c r="J12">
-        <v>0.9454846162884272</v>
+        <v>0.9454846162884286</v>
       </c>
       <c r="K12">
-        <v>0.9653142052939228</v>
+        <v>0.9653142052939241</v>
       </c>
       <c r="L12">
-        <v>0.9470293624055306</v>
+        <v>0.947029362405532</v>
       </c>
       <c r="M12">
-        <v>0.886804944719936</v>
+        <v>0.8868049447199376</v>
       </c>
       <c r="N12">
-        <v>0.9468273128921582</v>
+        <v>0.9468273128921595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9121399503209674</v>
+        <v>0.9121399503209688</v>
       </c>
       <c r="D13">
-        <v>0.9497022831367259</v>
+        <v>0.949702283136727</v>
       </c>
       <c r="E13">
-        <v>0.9310595305358755</v>
+        <v>0.9310595305358769</v>
       </c>
       <c r="F13">
-        <v>0.8696489203443818</v>
+        <v>0.8696489203443829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014784748846568</v>
+        <v>1.014784748846569</v>
       </c>
       <c r="J13">
-        <v>0.946083267224496</v>
+        <v>0.9460832672244972</v>
       </c>
       <c r="K13">
-        <v>0.9658134743158429</v>
+        <v>0.9658134743158442</v>
       </c>
       <c r="L13">
-        <v>0.9475895061930312</v>
+        <v>0.9475895061930324</v>
       </c>
       <c r="M13">
-        <v>0.8877321477656719</v>
+        <v>0.8877321477656731</v>
       </c>
       <c r="N13">
-        <v>0.9474268139812223</v>
+        <v>0.9474268139812234</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145692022701943</v>
+        <v>0.9145692022701918</v>
       </c>
       <c r="D14">
-        <v>0.9515177776730043</v>
+        <v>0.9515177776730021</v>
       </c>
       <c r="E14">
-        <v>0.9330843639362455</v>
+        <v>0.9330843639362432</v>
       </c>
       <c r="F14">
-        <v>0.8729231397191847</v>
+        <v>0.8729231397191815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015477724987272</v>
+        <v>1.015477724987271</v>
       </c>
       <c r="J14">
-        <v>0.9480263784360611</v>
+        <v>0.9480263784360587</v>
       </c>
       <c r="K14">
-        <v>0.9674340786014455</v>
+        <v>0.9674340786014434</v>
       </c>
       <c r="L14">
-        <v>0.9494078735269212</v>
+        <v>0.9494078735269191</v>
       </c>
       <c r="M14">
-        <v>0.8907389489179908</v>
+        <v>0.8907389489179877</v>
       </c>
       <c r="N14">
-        <v>0.949372684633586</v>
+        <v>0.9493726846335834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160489675247863</v>
+        <v>0.9160489675247859</v>
       </c>
       <c r="D15">
-        <v>0.9526241391663304</v>
+        <v>0.9526241391663297</v>
       </c>
       <c r="E15">
-        <v>0.934318277644217</v>
+        <v>0.9343182776442167</v>
       </c>
       <c r="F15">
-        <v>0.8749150298371708</v>
+        <v>0.8749150298371701</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.015899566457533</v>
       </c>
       <c r="J15">
-        <v>0.9492098526404098</v>
+        <v>0.9492098526404095</v>
       </c>
       <c r="K15">
-        <v>0.968421172581632</v>
+        <v>0.9684211725816312</v>
       </c>
       <c r="L15">
-        <v>0.9505155524182107</v>
+        <v>0.9505155524182104</v>
       </c>
       <c r="M15">
-        <v>0.8925682733226374</v>
+        <v>0.8925682733226367</v>
       </c>
       <c r="N15">
-        <v>0.9505578395070512</v>
+        <v>0.9505578395070505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9244193805832284</v>
+        <v>0.9244193805832269</v>
       </c>
       <c r="D16">
-        <v>0.9588887154202745</v>
+        <v>0.9588887154202733</v>
       </c>
       <c r="E16">
-        <v>0.9413050079236784</v>
+        <v>0.9413050079236769</v>
       </c>
       <c r="F16">
-        <v>0.8861473298429384</v>
+        <v>0.8861473298429366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018281325353923</v>
+        <v>1.018281325353922</v>
       </c>
       <c r="J16">
-        <v>0.9559018026160017</v>
+        <v>0.9559018026160001</v>
       </c>
       <c r="K16">
-        <v>0.9740031583344884</v>
+        <v>0.9740031583344874</v>
       </c>
       <c r="L16">
-        <v>0.9567814709076424</v>
+        <v>0.956781470907641</v>
       </c>
       <c r="M16">
-        <v>0.9028852399841787</v>
+        <v>0.9028852399841768</v>
       </c>
       <c r="N16">
-        <v>0.9572592928191853</v>
+        <v>0.9572592928191839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9294727593648521</v>
+        <v>0.92947275936485</v>
       </c>
       <c r="D17">
-        <v>0.9626757308448379</v>
+        <v>0.9626757308448363</v>
       </c>
       <c r="E17">
-        <v>0.9455286895015809</v>
+        <v>0.9455286895015791</v>
       </c>
       <c r="F17">
-        <v>0.8929014431771688</v>
+        <v>0.8929014431771666</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.019715164863576</v>
       </c>
       <c r="J17">
-        <v>0.9599396439798962</v>
+        <v>0.9599396439798943</v>
       </c>
       <c r="K17">
-        <v>0.9773714466048268</v>
+        <v>0.977371446604825</v>
       </c>
       <c r="L17">
-        <v>0.960564321328671</v>
+        <v>0.9605643213286694</v>
       </c>
       <c r="M17">
-        <v>0.9090897620911254</v>
+        <v>0.9090897620911231</v>
       </c>
       <c r="N17">
-        <v>0.9613028683809638</v>
+        <v>0.9613028683809617</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9323550910028793</v>
+        <v>0.9323550910028779</v>
       </c>
       <c r="D18">
-        <v>0.964837336995465</v>
+        <v>0.964837336995464</v>
       </c>
       <c r="E18">
-        <v>0.9479396529250302</v>
+        <v>0.9479396529250287</v>
       </c>
       <c r="F18">
-        <v>0.89674533666442</v>
+        <v>0.8967453366644186</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.020531451072311</v>
       </c>
       <c r="J18">
-        <v>0.9622419143907774</v>
+        <v>0.9622419143907761</v>
       </c>
       <c r="K18">
-        <v>0.9792919427710365</v>
+        <v>0.9792919427710355</v>
       </c>
       <c r="L18">
-        <v>0.9627218916021959</v>
+        <v>0.9627218916021946</v>
       </c>
       <c r="M18">
-        <v>0.9126210268918447</v>
+        <v>0.9126210268918433</v>
       </c>
       <c r="N18">
-        <v>0.9636084082799026</v>
+        <v>0.9636084082799012</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9333273285961221</v>
+        <v>0.9333273285961236</v>
       </c>
       <c r="D19">
-        <v>0.9655667169203702</v>
+        <v>0.9655667169203714</v>
       </c>
       <c r="E19">
-        <v>0.9487531971028956</v>
+        <v>0.9487531971028964</v>
       </c>
       <c r="F19">
-        <v>0.8980405793332182</v>
+        <v>0.8980405793332197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020806523337156</v>
+        <v>1.020806523337157</v>
       </c>
       <c r="J19">
-        <v>0.9630183500442552</v>
+        <v>0.9630183500442565</v>
       </c>
       <c r="K19">
-        <v>0.9799396168332952</v>
+        <v>0.9799396168332964</v>
       </c>
       <c r="L19">
-        <v>0.9634496395883932</v>
+        <v>0.9634496395883944</v>
       </c>
       <c r="M19">
-        <v>0.9138109404435657</v>
+        <v>0.9138109404435671</v>
       </c>
       <c r="N19">
-        <v>0.9643859465610666</v>
+        <v>0.9643859465610678</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9289374472512553</v>
+        <v>0.9289374472512525</v>
       </c>
       <c r="D20">
-        <v>0.9622743973596427</v>
+        <v>0.9622743973596404</v>
       </c>
       <c r="E20">
-        <v>0.9450810697330081</v>
+        <v>0.9450810697330059</v>
       </c>
       <c r="F20">
-        <v>0.8921868816185987</v>
+        <v>0.8921868816185957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019563435321014</v>
+        <v>1.019563435321013</v>
       </c>
       <c r="J20">
-        <v>0.9595119944589288</v>
+        <v>0.9595119944589261</v>
       </c>
       <c r="K20">
-        <v>0.9770147093796429</v>
+        <v>0.9770147093796404</v>
       </c>
       <c r="L20">
-        <v>0.9601636049594824</v>
+        <v>0.9601636049594799</v>
       </c>
       <c r="M20">
-        <v>0.9084333264212983</v>
+        <v>0.9084333264212953</v>
       </c>
       <c r="N20">
-        <v>0.9608746115486245</v>
+        <v>0.960874611548622</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138574276378554</v>
+        <v>0.9138574276378543</v>
       </c>
       <c r="D21">
-        <v>0.9509857363977663</v>
+        <v>0.9509857363977657</v>
       </c>
       <c r="E21">
-        <v>0.932490979119532</v>
+        <v>0.9324909791195312</v>
       </c>
       <c r="F21">
-        <v>0.8719643389775268</v>
+        <v>0.871964338977526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015274740224966</v>
+        <v>1.015274740224965</v>
       </c>
       <c r="J21">
-        <v>0.9474570774248771</v>
+        <v>0.9474570774248763</v>
       </c>
       <c r="K21">
-        <v>0.966959256751185</v>
+        <v>0.9669592567511843</v>
       </c>
       <c r="L21">
-        <v>0.9488750820853724</v>
+        <v>0.9488750820853717</v>
       </c>
       <c r="M21">
-        <v>0.8898584309809986</v>
+        <v>0.8898584309809975</v>
       </c>
       <c r="N21">
-        <v>0.9488025751496663</v>
+        <v>0.9488025751496654</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9036498254289052</v>
+        <v>0.9036498254289054</v>
       </c>
       <c r="D22">
-        <v>0.9433649102534947</v>
+        <v>0.9433649102534949</v>
       </c>
       <c r="E22">
-        <v>0.9239909194832988</v>
+        <v>0.9239909194832991</v>
       </c>
       <c r="F22">
-        <v>0.8581621132950944</v>
+        <v>0.8581621132950942</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,16 +1259,16 @@
         <v>1.012358769280172</v>
       </c>
       <c r="J22">
-        <v>0.9392897752473776</v>
+        <v>0.9392897752473778</v>
       </c>
       <c r="K22">
-        <v>0.960148484639978</v>
+        <v>0.9601484846399785</v>
       </c>
       <c r="L22">
-        <v>0.9412350913551462</v>
+        <v>0.9412350913551466</v>
       </c>
       <c r="M22">
-        <v>0.8771858138345553</v>
+        <v>0.8771858138345551</v>
       </c>
       <c r="N22">
         <v>0.940623674466272</v>
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9091378808228366</v>
+        <v>0.9091378808228374</v>
       </c>
       <c r="D23">
-        <v>0.9474600277013978</v>
+        <v>0.9474600277013985</v>
       </c>
       <c r="E23">
-        <v>0.928558655510472</v>
+        <v>0.9285586555104722</v>
       </c>
       <c r="F23">
-        <v>0.8655951510342412</v>
+        <v>0.8655951510342423</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.01392762095542</v>
       </c>
       <c r="J23">
-        <v>0.9436815339450266</v>
+        <v>0.9436815339450272</v>
       </c>
       <c r="K23">
-        <v>0.9638105191779885</v>
+        <v>0.9638105191779891</v>
       </c>
       <c r="L23">
-        <v>0.9453424746484888</v>
+        <v>0.9453424746484892</v>
       </c>
       <c r="M23">
-        <v>0.8840098402422458</v>
+        <v>0.8840098402422469</v>
       </c>
       <c r="N23">
-        <v>0.9450216699650134</v>
+        <v>0.9450216699650137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9291795319111427</v>
+        <v>0.9291795319111416</v>
       </c>
       <c r="D24">
-        <v>0.9624558878724484</v>
+        <v>0.9624558878724478</v>
       </c>
       <c r="E24">
-        <v>0.9452834914071829</v>
+        <v>0.9452834914071818</v>
       </c>
       <c r="F24">
-        <v>0.8925100546259952</v>
+        <v>0.8925100546259936</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.019632056935348</v>
       </c>
       <c r="J24">
-        <v>0.9597053933413598</v>
+        <v>0.9597053933413587</v>
       </c>
       <c r="K24">
-        <v>0.9771760391660561</v>
+        <v>0.9771760391660554</v>
       </c>
       <c r="L24">
-        <v>0.9603448215414671</v>
+        <v>0.9603448215414662</v>
       </c>
       <c r="M24">
-        <v>0.9087302105270108</v>
+        <v>0.9087302105270093</v>
       </c>
       <c r="N24">
-        <v>0.9610682850796517</v>
+        <v>0.9610682850796506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9499082383195352</v>
+        <v>0.9499082383195343</v>
       </c>
       <c r="D25">
-        <v>0.9780235810679125</v>
+        <v>0.9780235810679121</v>
       </c>
       <c r="E25">
-        <v>0.9626506952209176</v>
+        <v>0.9626506952209166</v>
       </c>
       <c r="F25">
-        <v>0.9200352855721964</v>
+        <v>0.9200352855721955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025473762842373</v>
+        <v>1.025473762842372</v>
       </c>
       <c r="J25">
-        <v>0.9762475433405983</v>
+        <v>0.9762475433405974</v>
       </c>
       <c r="K25">
-        <v>0.9909729099382973</v>
+        <v>0.9909729099382968</v>
       </c>
       <c r="L25">
-        <v>0.9758578716799818</v>
+        <v>0.9758578716799809</v>
       </c>
       <c r="M25">
-        <v>0.9340162576350779</v>
+        <v>0.934016257635077</v>
       </c>
       <c r="N25">
-        <v>0.9776339268293004</v>
+        <v>0.9776339268292992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9649034794045274</v>
+        <v>0.9833996317049051</v>
       </c>
       <c r="D2">
-        <v>0.9893134175211007</v>
+        <v>1.0084222556993</v>
       </c>
       <c r="E2">
-        <v>0.9752551224014498</v>
+        <v>0.9919623558213281</v>
       </c>
       <c r="F2">
-        <v>0.9397947147329531</v>
+        <v>0.9593511811262385</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029646752669989</v>
+        <v>1.038127317184053</v>
       </c>
       <c r="J2">
-        <v>0.9881871073192071</v>
+        <v>1.006088452989468</v>
       </c>
       <c r="K2">
-        <v>1.000923668844997</v>
+        <v>1.019765489008554</v>
       </c>
       <c r="L2">
-        <v>0.987070307048353</v>
+        <v>1.003534815305726</v>
       </c>
       <c r="M2">
-        <v>0.9521618053049816</v>
+        <v>0.9714074495839418</v>
       </c>
       <c r="N2">
-        <v>0.9895904463582459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005595335842235</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.025045839836824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9750758457732627</v>
+        <v>0.9889031718737344</v>
       </c>
       <c r="D3">
-        <v>0.9969817313645373</v>
+        <v>1.011979902149585</v>
       </c>
       <c r="E3">
-        <v>0.9838240849367921</v>
+        <v>0.9964217174200058</v>
       </c>
       <c r="F3">
-        <v>0.9531425433037489</v>
+        <v>0.9676733687576349</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032444491274927</v>
+        <v>1.03916528050792</v>
       </c>
       <c r="J3">
-        <v>0.996269825210683</v>
+        <v>1.00970098779917</v>
       </c>
       <c r="K3">
-        <v>1.007653377733318</v>
+        <v>1.022461758701781</v>
       </c>
       <c r="L3">
-        <v>0.9946682109092411</v>
+        <v>1.007100588715967</v>
       </c>
       <c r="M3">
-        <v>0.964412288041343</v>
+        <v>0.9787372955164412</v>
       </c>
       <c r="N3">
-        <v>0.9976846426362279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006850090481929</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.026949699186973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9813719214429663</v>
+        <v>0.9923742695182691</v>
       </c>
       <c r="D4">
-        <v>1.00173062582992</v>
+        <v>1.014227519047341</v>
       </c>
       <c r="E4">
-        <v>0.9891349284169395</v>
+        <v>0.9992405871425201</v>
       </c>
       <c r="F4">
-        <v>0.9613855940611312</v>
+        <v>0.972905961255306</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034160096935411</v>
+        <v>1.039808353201739</v>
       </c>
       <c r="J4">
-        <v>1.001264444320399</v>
+        <v>1.011975074451156</v>
       </c>
       <c r="K4">
-        <v>1.011808208503315</v>
+        <v>1.024157210319913</v>
       </c>
       <c r="L4">
-        <v>0.9993662785584974</v>
+        <v>1.00934818625775</v>
       </c>
       <c r="M4">
-        <v>0.9719735400058253</v>
+        <v>0.9833427738457934</v>
       </c>
       <c r="N4">
-        <v>1.002686354677971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.007639503373687</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.028149484206989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9839559598791815</v>
+        <v>0.9938180012110422</v>
       </c>
       <c r="D5">
-        <v>1.003680082640864</v>
+        <v>1.015165563276443</v>
       </c>
       <c r="E5">
-        <v>0.9913161559580985</v>
+        <v>1.000415071058032</v>
       </c>
       <c r="F5">
-        <v>0.9647652205772264</v>
+        <v>0.9750766434920464</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034860269996323</v>
+        <v>1.040074728132803</v>
       </c>
       <c r="J5">
-        <v>1.003312346235525</v>
+        <v>1.012921475139246</v>
       </c>
       <c r="K5">
-        <v>1.01351080351258</v>
+        <v>1.024864235833909</v>
       </c>
       <c r="L5">
-        <v>1.001293266431441</v>
+        <v>1.010284014609834</v>
       </c>
       <c r="M5">
-        <v>0.9750725395693031</v>
+        <v>0.9852530588063994</v>
       </c>
       <c r="N5">
-        <v>1.004737164848714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.007968528260493</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.028656710333519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843862974032147</v>
+        <v>0.9940653351928489</v>
       </c>
       <c r="D6">
-        <v>1.004004757077734</v>
+        <v>1.015329185074639</v>
       </c>
       <c r="E6">
-        <v>0.9916794970869595</v>
+        <v>1.000617052595396</v>
       </c>
       <c r="F6">
-        <v>0.9653278719506985</v>
+        <v>0.9754455281749829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03497663949415</v>
+        <v>1.040122304426912</v>
       </c>
       <c r="J6">
-        <v>1.003653278622062</v>
+        <v>1.01308549563134</v>
       </c>
       <c r="K6">
-        <v>1.013794189868573</v>
+        <v>1.024989058732482</v>
       </c>
       <c r="L6">
-        <v>1.001614107807498</v>
+        <v>1.010445947828028</v>
       </c>
       <c r="M6">
-        <v>0.9755884043374842</v>
+        <v>0.9855783288115646</v>
       </c>
       <c r="N6">
-        <v>1.005078581398346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008026297369746</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.02875385243958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9814066894571376</v>
+        <v>0.9924101260750227</v>
       </c>
       <c r="D7">
-        <v>1.001756854248304</v>
+        <v>1.014258520220491</v>
       </c>
       <c r="E7">
-        <v>0.98916427071469</v>
+        <v>0.9992716252045901</v>
       </c>
       <c r="F7">
-        <v>0.9614310793627646</v>
+        <v>0.9729523486819259</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034169533497412</v>
+        <v>1.03982066534405</v>
       </c>
       <c r="J7">
-        <v>1.00129200663611</v>
+        <v>1.012003832029169</v>
       </c>
       <c r="K7">
-        <v>1.011831127379823</v>
+        <v>1.024184905492245</v>
       </c>
       <c r="L7">
-        <v>0.9993922108820799</v>
+        <v>1.009375844601301</v>
       </c>
       <c r="M7">
-        <v>0.9720152528968079</v>
+        <v>0.9833854463095838</v>
       </c>
       <c r="N7">
-        <v>1.002713956135332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.007651562331397</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028189497751235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9684041932960664</v>
+        <v>0.9852998442091105</v>
       </c>
       <c r="D8">
-        <v>0.9919516671755545</v>
+        <v>1.00965937845167</v>
       </c>
       <c r="E8">
-        <v>0.9782023972574897</v>
+        <v>0.9935031693477995</v>
       </c>
       <c r="F8">
-        <v>0.9443927933003436</v>
+        <v>0.9622187173624566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030612914462828</v>
+        <v>1.038495187576442</v>
       </c>
       <c r="J8">
-        <v>0.9909703826361906</v>
+        <v>1.007343233567387</v>
       </c>
       <c r="K8">
-        <v>1.003241773332687</v>
+        <v>1.020710077891768</v>
       </c>
       <c r="L8">
-        <v>0.9896859567903291</v>
+        <v>1.004771869500733</v>
       </c>
       <c r="M8">
-        <v>0.9563826799926599</v>
+        <v>0.9739360050631648</v>
       </c>
       <c r="N8">
-        <v>0.9923776742454254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006033988016059</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.025737086469015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429949679665834</v>
+        <v>0.9720029477772906</v>
       </c>
       <c r="D9">
-        <v>0.9728259261253863</v>
+        <v>1.001080962862984</v>
       </c>
       <c r="E9">
-        <v>0.956851035015345</v>
+        <v>0.9827663474002291</v>
       </c>
       <c r="F9">
-        <v>0.9108854942975492</v>
+        <v>0.9420009182455498</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023533679476414</v>
+        <v>1.035916239283313</v>
       </c>
       <c r="J9">
-        <v>0.9707347780014814</v>
+        <v>0.9985846234100175</v>
       </c>
       <c r="K9">
-        <v>0.9863758268683517</v>
+        <v>1.01415652651064</v>
       </c>
       <c r="L9">
-        <v>0.9706852466196529</v>
+        <v>0.9961453570893494</v>
       </c>
       <c r="M9">
-        <v>0.9256112615366184</v>
+        <v>0.9561107290646981</v>
       </c>
       <c r="N9">
-        <v>0.972113332731079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002987419922376</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.021099854088752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.923839072889086</v>
+        <v>0.9625674267569927</v>
       </c>
       <c r="D10">
-        <v>0.9584540643312737</v>
+        <v>0.9950269336437775</v>
       </c>
       <c r="E10">
-        <v>0.9408202492438315</v>
+        <v>0.9751896264590703</v>
       </c>
       <c r="F10">
-        <v>0.8853704571490919</v>
+        <v>0.9275006435982772</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01811646194116</v>
+        <v>1.034029904469609</v>
       </c>
       <c r="J10">
-        <v>0.9554380030142566</v>
+        <v>0.9923491580883768</v>
       </c>
       <c r="K10">
-        <v>0.9736162696658129</v>
+        <v>1.00948656264123</v>
       </c>
       <c r="L10">
-        <v>0.9563470595657749</v>
+        <v>0.9900217700116775</v>
       </c>
       <c r="M10">
-        <v>0.9021716134125932</v>
+        <v>0.9433150827158105</v>
       </c>
       <c r="N10">
-        <v>0.9567948345688074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.000818351296118</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.017814929864029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148526518206077</v>
+        <v>0.9583479554127139</v>
       </c>
       <c r="D11">
-        <v>0.9517296746761574</v>
+        <v>0.9923381966086231</v>
       </c>
       <c r="E11">
-        <v>0.9333206914473159</v>
+        <v>0.9718153686647737</v>
       </c>
       <c r="F11">
-        <v>0.8733048366568468</v>
+        <v>0.9209583059387704</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015558545712539</v>
+        <v>1.033180533780035</v>
       </c>
       <c r="J11">
-        <v>0.9482530829274698</v>
+        <v>0.9895623754523086</v>
       </c>
       <c r="K11">
-        <v>0.9676231622576308</v>
+        <v>1.007406064364738</v>
       </c>
       <c r="L11">
-        <v>0.9496200481823309</v>
+        <v>0.9872891255871198</v>
       </c>
       <c r="M11">
-        <v>0.8910894873968158</v>
+        <v>0.9375424233020635</v>
       </c>
       <c r="N11">
-        <v>0.949599711071376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9998522856213854</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.016377514244357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9113916054472325</v>
+        <v>0.9567425531146656</v>
       </c>
       <c r="D12">
-        <v>0.949143202794655</v>
+        <v>0.991311225541208</v>
       </c>
       <c r="E12">
-        <v>0.9304359747958598</v>
+        <v>0.9705316100447362</v>
       </c>
       <c r="F12">
-        <v>0.8686391963525627</v>
+        <v>0.91846670638328</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014571162439906</v>
+        <v>1.032851496989633</v>
       </c>
       <c r="J12">
-        <v>0.9454846162884286</v>
+        <v>0.9884975818715067</v>
       </c>
       <c r="K12">
-        <v>0.9653142052939241</v>
+        <v>1.006606803665443</v>
       </c>
       <c r="L12">
-        <v>0.947029362405532</v>
+        <v>0.9862460252578925</v>
       </c>
       <c r="M12">
-        <v>0.8868049447199376</v>
+        <v>0.9353424720236567</v>
       </c>
       <c r="N12">
-        <v>0.9468273128921595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9994813678843772</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.015812383255259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9121399503209688</v>
+        <v>0.9570855901805811</v>
       </c>
       <c r="D13">
-        <v>0.949702283136727</v>
+        <v>0.9915295345147734</v>
       </c>
       <c r="E13">
-        <v>0.9310595305358769</v>
+        <v>0.9708055028243331</v>
       </c>
       <c r="F13">
-        <v>0.8696489203443829</v>
+        <v>0.9190006660489483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014784748846569</v>
+        <v>1.032921113357647</v>
       </c>
       <c r="J13">
-        <v>0.9460832672244972</v>
+        <v>0.9887244087575587</v>
       </c>
       <c r="K13">
-        <v>0.9658134743158442</v>
+        <v>1.0067762484518</v>
       </c>
       <c r="L13">
-        <v>0.9475895061930324</v>
+        <v>0.98646824604918</v>
       </c>
       <c r="M13">
-        <v>0.8877321477656731</v>
+        <v>0.9358136797927603</v>
       </c>
       <c r="N13">
-        <v>0.9474268139812234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9995600203848088</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.015929633942864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145692022701918</v>
+        <v>0.9582147149143218</v>
       </c>
       <c r="D14">
-        <v>0.9515177776730021</v>
+        <v>0.99225247869599</v>
       </c>
       <c r="E14">
-        <v>0.9330843639362432</v>
+        <v>0.9717086439901252</v>
       </c>
       <c r="F14">
-        <v>0.8729231397191815</v>
+        <v>0.9207521897383324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015477724987271</v>
+        <v>1.033152932776593</v>
       </c>
       <c r="J14">
-        <v>0.9480263784360587</v>
+        <v>0.9894737073254939</v>
       </c>
       <c r="K14">
-        <v>0.9674340786014434</v>
+        <v>1.007339158868087</v>
       </c>
       <c r="L14">
-        <v>0.9494078735269191</v>
+        <v>0.9872022700451683</v>
       </c>
       <c r="M14">
-        <v>0.8907389489179877</v>
+        <v>0.9373603269907673</v>
       </c>
       <c r="N14">
-        <v>0.9493726846335834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9998212446193948</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.016329111980017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160489675247859</v>
+        <v>0.9589119156710753</v>
       </c>
       <c r="D15">
-        <v>0.9526241391663297</v>
+        <v>0.9927011825771143</v>
       </c>
       <c r="E15">
-        <v>0.9343182776442167</v>
+        <v>0.972267201896527</v>
       </c>
       <c r="F15">
-        <v>0.8749150298371701</v>
+        <v>0.9218302561579977</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015899566457533</v>
+        <v>1.033297361524497</v>
       </c>
       <c r="J15">
-        <v>0.9492098526404095</v>
+        <v>0.9899377204680797</v>
       </c>
       <c r="K15">
-        <v>0.9684211725816312</v>
+        <v>1.007689367836939</v>
       </c>
       <c r="L15">
-        <v>0.9505155524182104</v>
+        <v>0.9876568212552926</v>
       </c>
       <c r="M15">
-        <v>0.8925682733226367</v>
+        <v>0.9383127807102561</v>
       </c>
       <c r="N15">
-        <v>0.9505578395070505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9999837225955287</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.016582756225627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9244193805832269</v>
+        <v>0.9628863450852125</v>
       </c>
       <c r="D16">
-        <v>0.9588887154202733</v>
+        <v>0.9952486360291565</v>
       </c>
       <c r="E16">
-        <v>0.9413050079236769</v>
+        <v>0.9754505327278493</v>
       </c>
       <c r="F16">
-        <v>0.8861473298429366</v>
+        <v>0.9279741969998437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018281325353922</v>
+        <v>1.03410714259151</v>
       </c>
       <c r="J16">
-        <v>0.9559018026160001</v>
+        <v>0.9925721909145486</v>
       </c>
       <c r="K16">
-        <v>0.9740031583344874</v>
+        <v>1.009667279283175</v>
       </c>
       <c r="L16">
-        <v>0.956781470907641</v>
+        <v>0.9902396189596891</v>
       </c>
       <c r="M16">
-        <v>0.9028852399841768</v>
+        <v>0.9437372767187061</v>
       </c>
       <c r="N16">
-        <v>0.9572592928191839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.000901723418726</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.01798451322759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.92947275936485</v>
+        <v>0.9653356806010018</v>
       </c>
       <c r="D17">
-        <v>0.9626757308448363</v>
+        <v>0.9968209373079981</v>
       </c>
       <c r="E17">
-        <v>0.9455286895015791</v>
+        <v>0.9774152443331338</v>
       </c>
       <c r="F17">
-        <v>0.8929014431771666</v>
+        <v>0.9317473691631087</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019715164863576</v>
+        <v>1.034602753591792</v>
       </c>
       <c r="J17">
-        <v>0.9599396439798943</v>
+        <v>0.9941943682015744</v>
       </c>
       <c r="K17">
-        <v>0.977371446604825</v>
+        <v>1.01088493756108</v>
       </c>
       <c r="L17">
-        <v>0.9605643213286694</v>
+        <v>0.9918312034783827</v>
       </c>
       <c r="M17">
-        <v>0.9090897620911231</v>
+        <v>0.9470682012863583</v>
       </c>
       <c r="N17">
-        <v>0.9613028683809617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.001466954735133</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.018848122689986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9323550910028779</v>
+        <v>0.9667363323947149</v>
       </c>
       <c r="D18">
-        <v>0.964837336995464</v>
+        <v>0.9977152872086203</v>
       </c>
       <c r="E18">
-        <v>0.9479396529250287</v>
+        <v>0.9785380961974216</v>
       </c>
       <c r="F18">
-        <v>0.8967453366644186</v>
+        <v>0.9339066546284487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020531451072311</v>
+        <v>1.034880849784473</v>
       </c>
       <c r="J18">
-        <v>0.9622419143907761</v>
+        <v>0.9951176991690731</v>
       </c>
       <c r="K18">
-        <v>0.9792919427710355</v>
+        <v>1.011573574653565</v>
       </c>
       <c r="L18">
-        <v>0.9627218916021946</v>
+        <v>0.992737867214847</v>
       </c>
       <c r="M18">
-        <v>0.9126210268918433</v>
+        <v>0.9489728812713799</v>
       </c>
       <c r="N18">
-        <v>0.9636084082799012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.001786855306309</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.019323118759904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9333273285961236</v>
+        <v>0.9672213671562108</v>
       </c>
       <c r="D19">
-        <v>0.9655667169203714</v>
+        <v>0.9980294608923431</v>
       </c>
       <c r="E19">
-        <v>0.9487531971028964</v>
+        <v>0.978928403606757</v>
       </c>
       <c r="F19">
-        <v>0.8980405793332197</v>
+        <v>0.934649066784829</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020806523337157</v>
+        <v>1.034980107528399</v>
       </c>
       <c r="J19">
-        <v>0.9630183500442565</v>
+        <v>0.9954403272407265</v>
       </c>
       <c r="K19">
-        <v>0.9799396168332964</v>
+        <v>1.011817568734985</v>
       </c>
       <c r="L19">
-        <v>0.9634496395883944</v>
+        <v>0.9930544933892462</v>
       </c>
       <c r="M19">
-        <v>0.9138109404435671</v>
+        <v>0.9496287594195997</v>
       </c>
       <c r="N19">
-        <v>0.9643859465610678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.001900045341465</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.019502179525496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9289374472512525</v>
+        <v>0.9650734629240084</v>
       </c>
       <c r="D20">
-        <v>0.9622743973596404</v>
+        <v>0.9966520937529555</v>
       </c>
       <c r="E20">
-        <v>0.9450810697330059</v>
+        <v>0.9772046711693155</v>
       </c>
       <c r="F20">
-        <v>0.8921868816185957</v>
+        <v>0.9313443535238489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019563435321013</v>
+        <v>1.034549508798414</v>
       </c>
       <c r="J20">
-        <v>0.9595119944589261</v>
+        <v>0.9940204582320913</v>
       </c>
       <c r="K20">
-        <v>0.9770147093796404</v>
+        <v>1.010754068621149</v>
       </c>
       <c r="L20">
-        <v>0.9601636049594799</v>
+        <v>0.9916605522612387</v>
       </c>
       <c r="M20">
-        <v>0.9084333264212953</v>
+        <v>0.9467123364777192</v>
       </c>
       <c r="N20">
-        <v>0.960874611548622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001406217222392</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.018754223211528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138574276378543</v>
+        <v>0.9578970852735921</v>
       </c>
       <c r="D21">
-        <v>0.9509857363977657</v>
+        <v>0.9920550265460517</v>
       </c>
       <c r="E21">
-        <v>0.9324909791195312</v>
+        <v>0.9714564186390535</v>
       </c>
       <c r="F21">
-        <v>0.871964338977526</v>
+        <v>0.9202531729203757</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015274740224965</v>
+        <v>1.033092123231075</v>
       </c>
       <c r="J21">
-        <v>0.9474570774248763</v>
+        <v>0.9892670344678091</v>
       </c>
       <c r="K21">
-        <v>0.9669592567511843</v>
+        <v>1.007188498575663</v>
       </c>
       <c r="L21">
-        <v>0.9488750820853717</v>
+        <v>0.9869995158768137</v>
       </c>
       <c r="M21">
-        <v>0.8898584309809975</v>
+        <v>0.9369211213922638</v>
       </c>
       <c r="N21">
-        <v>0.9488025751496654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9997512133121204</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.01623644813229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9036498254289054</v>
+        <v>0.9532170355287621</v>
       </c>
       <c r="D22">
-        <v>0.9433649102534949</v>
+        <v>0.9890580955576066</v>
       </c>
       <c r="E22">
-        <v>0.9239909194832991</v>
+        <v>0.9677155184874262</v>
       </c>
       <c r="F22">
-        <v>0.8581621132950942</v>
+        <v>0.912979101249353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012358769280172</v>
+        <v>1.032124930222819</v>
       </c>
       <c r="J22">
-        <v>0.9392897752473778</v>
+        <v>0.9861573325855281</v>
       </c>
       <c r="K22">
-        <v>0.9601484846399785</v>
+        <v>1.004849475374616</v>
       </c>
       <c r="L22">
-        <v>0.9412350913551466</v>
+        <v>0.9839548636905205</v>
       </c>
       <c r="M22">
-        <v>0.8771858138345551</v>
+        <v>0.9304968418984133</v>
       </c>
       <c r="N22">
-        <v>0.940623674466272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9986659280558265</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.014568732797037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9091378808228374</v>
+        <v>0.955695990239855</v>
       </c>
       <c r="D23">
-        <v>0.9474600277013985</v>
+        <v>0.9906375305150569</v>
       </c>
       <c r="E23">
-        <v>0.9285586555104722</v>
+        <v>0.969693753530196</v>
       </c>
       <c r="F23">
-        <v>0.8655951510342423</v>
+        <v>0.9168450289614494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01392762095542</v>
+        <v>1.032633064686311</v>
       </c>
       <c r="J23">
-        <v>0.9436815339450272</v>
+        <v>0.9878000301007088</v>
       </c>
       <c r="K23">
-        <v>0.9638105191779891</v>
+        <v>1.00607959815144</v>
       </c>
       <c r="L23">
-        <v>0.9453424746484892</v>
+        <v>0.985563101320643</v>
       </c>
       <c r="M23">
-        <v>0.8840098402422469</v>
+        <v>0.9339094599108029</v>
       </c>
       <c r="N23">
-        <v>0.9450216699650137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.999236792120835</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.015428633058972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9291795319111416</v>
+        <v>0.9651647792380218</v>
       </c>
       <c r="D24">
-        <v>0.9624558878724478</v>
+        <v>0.9966992146285711</v>
       </c>
       <c r="E24">
-        <v>0.9452834914071818</v>
+        <v>0.9772744675337571</v>
       </c>
       <c r="F24">
-        <v>0.8925100546259936</v>
+        <v>0.9314972008510612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019632056935348</v>
+        <v>1.034559511706102</v>
       </c>
       <c r="J24">
-        <v>0.9597053933413587</v>
+        <v>0.9940730163022309</v>
       </c>
       <c r="K24">
-        <v>0.9771760391660554</v>
+        <v>1.010784544777013</v>
       </c>
       <c r="L24">
-        <v>0.9603448215414662</v>
+        <v>0.9917127790816104</v>
       </c>
       <c r="M24">
-        <v>0.9087302105270093</v>
+        <v>0.9468444894737092</v>
       </c>
       <c r="N24">
-        <v>0.9610682850796506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001420764234057</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.018747723023664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9499082383195343</v>
+        <v>0.9755634891768132</v>
       </c>
       <c r="D25">
-        <v>0.9780235810679121</v>
+        <v>1.003385495164997</v>
       </c>
       <c r="E25">
-        <v>0.9626506952209166</v>
+        <v>0.9856380565581687</v>
       </c>
       <c r="F25">
-        <v>0.9200352855721955</v>
+        <v>0.9474245410233406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025473762842372</v>
+        <v>1.036626049273816</v>
       </c>
       <c r="J25">
-        <v>0.9762475433405974</v>
+        <v>1.000942184412988</v>
       </c>
       <c r="K25">
-        <v>0.9909729099382968</v>
+        <v>1.015931482036344</v>
       </c>
       <c r="L25">
-        <v>0.9758578716799809</v>
+        <v>0.9984634912147187</v>
       </c>
       <c r="M25">
-        <v>0.934016257635077</v>
+        <v>0.9608978121518663</v>
       </c>
       <c r="N25">
-        <v>0.9776339268292992</v>
+        <v>1.003811469305242</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.022384093730134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9833996317049051</v>
+        <v>0.9853184640752296</v>
       </c>
       <c r="D2">
-        <v>1.0084222556993</v>
+        <v>1.009994052702915</v>
       </c>
       <c r="E2">
-        <v>0.9919623558213281</v>
+        <v>0.9936457470789239</v>
       </c>
       <c r="F2">
-        <v>0.9593511811262385</v>
+        <v>0.9613767121117049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.038127317184053</v>
+        <v>1.038804733130682</v>
       </c>
       <c r="J2">
-        <v>1.006088452989468</v>
+        <v>1.007947343674169</v>
       </c>
       <c r="K2">
-        <v>1.019765489008554</v>
+        <v>1.021315888475619</v>
       </c>
       <c r="L2">
-        <v>1.003534815305726</v>
+        <v>1.005194322371177</v>
       </c>
       <c r="M2">
-        <v>0.9714074495839418</v>
+        <v>0.9734017102909734</v>
       </c>
       <c r="N2">
-        <v>1.005595335842235</v>
+        <v>1.009064539947725</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.025045839836824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.026151075486672</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017757992361019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9889031718737344</v>
+        <v>0.9904365019678641</v>
       </c>
       <c r="D3">
-        <v>1.011979902149585</v>
+        <v>1.013163348154819</v>
       </c>
       <c r="E3">
-        <v>0.9964217174200058</v>
+        <v>0.9977692837203873</v>
       </c>
       <c r="F3">
-        <v>0.9676733687576349</v>
+        <v>0.9692830421591629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.03916528050792</v>
+        <v>1.039678469687125</v>
       </c>
       <c r="J3">
-        <v>1.00970098779917</v>
+        <v>1.011191316859031</v>
       </c>
       <c r="K3">
-        <v>1.022461758701781</v>
+        <v>1.02363052702098</v>
       </c>
       <c r="L3">
-        <v>1.007100588715967</v>
+        <v>1.008430786773947</v>
       </c>
       <c r="M3">
-        <v>0.9787372955164412</v>
+        <v>0.9803246479519254</v>
       </c>
       <c r="N3">
-        <v>1.006850090481929</v>
+        <v>1.009959001235641</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.026949699186973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027784788497878</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0182789616799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9923742695182691</v>
+        <v>0.9936691172271226</v>
       </c>
       <c r="D4">
-        <v>1.014227519047341</v>
+        <v>1.015168929080629</v>
       </c>
       <c r="E4">
-        <v>0.9992405871425201</v>
+        <v>1.0003800361566</v>
       </c>
       <c r="F4">
-        <v>0.972905961255306</v>
+        <v>0.9742607668952946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.039808353201739</v>
+        <v>1.0402190756284</v>
       </c>
       <c r="J4">
-        <v>1.011975074451156</v>
+        <v>1.013236165844693</v>
       </c>
       <c r="K4">
-        <v>1.024157210319913</v>
+        <v>1.025087661828951</v>
       </c>
       <c r="L4">
-        <v>1.00934818625775</v>
+        <v>1.010473876639868</v>
       </c>
       <c r="M4">
-        <v>0.9833427738457934</v>
+        <v>0.9846800998773769</v>
       </c>
       <c r="N4">
-        <v>1.007639503373687</v>
+        <v>1.010522617635625</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.028149484206989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028816129782813</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018604103864708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9938180012110422</v>
+        <v>0.9950145614868446</v>
       </c>
       <c r="D5">
-        <v>1.015165563276443</v>
+        <v>1.016006898234625</v>
       </c>
       <c r="E5">
-        <v>1.000415071058032</v>
+        <v>1.001468652339485</v>
       </c>
       <c r="F5">
-        <v>0.9750766434920464</v>
+        <v>0.9763269299045961</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.040074728132803</v>
+        <v>1.040443026736798</v>
       </c>
       <c r="J5">
-        <v>1.012921475139246</v>
+        <v>1.014087809934601</v>
       </c>
       <c r="K5">
-        <v>1.024864235833909</v>
+        <v>1.025696042651367</v>
       </c>
       <c r="L5">
-        <v>1.010284014609834</v>
+        <v>1.011325228174707</v>
       </c>
       <c r="M5">
-        <v>0.9852530588063994</v>
+        <v>0.9864877071077237</v>
       </c>
       <c r="N5">
-        <v>1.007968528260493</v>
+        <v>1.010757760795306</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.028656710333519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029254307113423</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018739678666379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9940653351928489</v>
+        <v>0.9952449537967237</v>
       </c>
       <c r="D6">
-        <v>1.015329185074639</v>
+        <v>1.016153338374153</v>
       </c>
       <c r="E6">
-        <v>1.000617052595396</v>
+        <v>1.001655805028117</v>
       </c>
       <c r="F6">
-        <v>0.9754455281749829</v>
+        <v>0.9766778372543692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.040122304426912</v>
+        <v>1.040483278335902</v>
       </c>
       <c r="J6">
-        <v>1.01308549563134</v>
+        <v>1.014235476071312</v>
       </c>
       <c r="K6">
-        <v>1.024989058732482</v>
+        <v>1.025803922047896</v>
       </c>
       <c r="L6">
-        <v>1.010445947828028</v>
+        <v>1.011472565024576</v>
       </c>
       <c r="M6">
-        <v>0.9855783288115646</v>
+        <v>0.98679530565911</v>
       </c>
       <c r="N6">
-        <v>1.008026297369746</v>
+        <v>1.010799094524204</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.02875385243958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029340332082776</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018764295654404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9924101260750227</v>
+        <v>0.993714538862744</v>
       </c>
       <c r="D7">
-        <v>1.014258520220491</v>
+        <v>1.015206133015176</v>
       </c>
       <c r="E7">
-        <v>0.9992716252045901</v>
+        <v>1.00041990503002</v>
       </c>
       <c r="F7">
-        <v>0.9729523486819259</v>
+        <v>0.9743171339836726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.03982066534405</v>
+        <v>1.04023423245442</v>
       </c>
       <c r="J7">
-        <v>1.012003832029169</v>
+        <v>1.01327425539007</v>
       </c>
       <c r="K7">
-        <v>1.024184905492245</v>
+        <v>1.025121492168785</v>
       </c>
       <c r="L7">
-        <v>1.009375844601301</v>
+        <v>1.010510265046181</v>
       </c>
       <c r="M7">
-        <v>0.9833854463095838</v>
+        <v>0.9847326315341718</v>
       </c>
       <c r="N7">
-        <v>1.007651562331397</v>
+        <v>1.010561281939051</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028189497751235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.02886246906966</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018614092423093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9852998442091105</v>
+        <v>0.9871227707476449</v>
       </c>
       <c r="D8">
-        <v>1.00965937845167</v>
+        <v>1.011124105938942</v>
       </c>
       <c r="E8">
-        <v>0.9935031693477995</v>
+        <v>0.9951048836444888</v>
       </c>
       <c r="F8">
-        <v>0.9622187173624566</v>
+        <v>0.9641393022615271</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.038495187576442</v>
+        <v>1.039128285914473</v>
       </c>
       <c r="J8">
-        <v>1.007343233567387</v>
+        <v>1.009111224620246</v>
       </c>
       <c r="K8">
-        <v>1.020710077891768</v>
+        <v>1.022155473329719</v>
       </c>
       <c r="L8">
-        <v>1.004771869500733</v>
+        <v>1.00635157323169</v>
       </c>
       <c r="M8">
-        <v>0.9739360050631648</v>
+        <v>0.9758279846639273</v>
       </c>
       <c r="N8">
-        <v>1.006033988016059</v>
+        <v>1.009468674352772</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.025737086469015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.026770316694718</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01795208601043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9720029477772906</v>
+        <v>0.9747958264263882</v>
       </c>
       <c r="D9">
-        <v>1.001080962862984</v>
+        <v>1.003508410346984</v>
       </c>
       <c r="E9">
-        <v>0.9827663474002291</v>
+        <v>0.9852106993633849</v>
       </c>
       <c r="F9">
-        <v>0.9420009182455498</v>
+        <v>0.9449861896242943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.035916239283313</v>
+        <v>1.036956014374481</v>
       </c>
       <c r="J9">
-        <v>0.9985846234100175</v>
+        <v>1.001271116710613</v>
       </c>
       <c r="K9">
-        <v>1.01415652651064</v>
+        <v>1.01654482134852</v>
       </c>
       <c r="L9">
-        <v>0.9961453570893494</v>
+        <v>0.998548368296203</v>
       </c>
       <c r="M9">
-        <v>0.9561107290646981</v>
+        <v>0.9590396891335904</v>
       </c>
       <c r="N9">
-        <v>1.002987419922376</v>
+        <v>1.007314601454358</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.021099854088752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02279957591299</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016671754572505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625674267569927</v>
+        <v>0.9661436612698225</v>
       </c>
       <c r="D10">
-        <v>0.9950269336437775</v>
+        <v>0.9982021391524506</v>
       </c>
       <c r="E10">
-        <v>0.9751896264590703</v>
+        <v>0.978314076799534</v>
       </c>
       <c r="F10">
-        <v>0.9275006435982772</v>
+        <v>0.9313675724725703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.034029904469609</v>
+        <v>1.035386328619926</v>
       </c>
       <c r="J10">
-        <v>0.9923491580883768</v>
+        <v>0.9957680628453948</v>
       </c>
       <c r="K10">
-        <v>1.00948656264123</v>
+        <v>1.012603930582453</v>
       </c>
       <c r="L10">
-        <v>0.9900217700116775</v>
+        <v>0.9930862362098491</v>
       </c>
       <c r="M10">
-        <v>0.9433150827158105</v>
+        <v>0.9470973820171413</v>
       </c>
       <c r="N10">
-        <v>1.000818351296118</v>
+        <v>1.005918180233746</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.017814929864029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.020031874934265</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01576188035542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9583479554127139</v>
+        <v>0.9623816708678687</v>
       </c>
       <c r="D11">
-        <v>0.9923381966086231</v>
+        <v>0.995925584249752</v>
       </c>
       <c r="E11">
-        <v>0.9718153686647737</v>
+        <v>0.9753415026577755</v>
       </c>
       <c r="F11">
-        <v>0.9209583059387704</v>
+        <v>0.9253441876773999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.033180533780035</v>
+        <v>1.03471410451464</v>
       </c>
       <c r="J11">
-        <v>0.9895623754523086</v>
+        <v>0.9934077028039332</v>
       </c>
       <c r="K11">
-        <v>1.007406064364738</v>
+        <v>1.010924749314327</v>
       </c>
       <c r="L11">
-        <v>0.9872891255871198</v>
+        <v>0.9907439217680563</v>
       </c>
       <c r="M11">
-        <v>0.9375424233020635</v>
+        <v>0.9418261140405051</v>
       </c>
       <c r="N11">
-        <v>0.9998522856213854</v>
+        <v>1.0055088991109</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.016377514244357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.01888141108887</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015379298707342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9567425531146656</v>
+        <v>0.9609619973739363</v>
       </c>
       <c r="D12">
-        <v>0.991311225541208</v>
+        <v>0.9950640532685247</v>
       </c>
       <c r="E12">
-        <v>0.9705316100447362</v>
+        <v>0.9742213016461699</v>
       </c>
       <c r="F12">
-        <v>0.91846670638328</v>
+        <v>0.9230644687870527</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.032851496989633</v>
+        <v>1.034456594853782</v>
       </c>
       <c r="J12">
-        <v>0.9884975818715067</v>
+        <v>0.9925156000997591</v>
       </c>
       <c r="K12">
-        <v>1.006606803665443</v>
+        <v>1.010286433156748</v>
       </c>
       <c r="L12">
-        <v>0.9862460252578925</v>
+        <v>0.9898596256751675</v>
       </c>
       <c r="M12">
-        <v>0.9353424720236567</v>
+        <v>0.9398306029420136</v>
       </c>
       <c r="N12">
-        <v>0.9994813678843772</v>
+        <v>1.00536962036327</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.015812383255259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.018430091686378</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015232876525715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9570855901805811</v>
+        <v>0.9612648950822624</v>
       </c>
       <c r="D13">
-        <v>0.9915295345147734</v>
+        <v>0.9952466630763032</v>
       </c>
       <c r="E13">
-        <v>0.9708055028243331</v>
+        <v>0.9744598452234328</v>
       </c>
       <c r="F13">
-        <v>0.9190006660489483</v>
+        <v>0.923552559198401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.032921113357647</v>
+        <v>1.034510792058683</v>
       </c>
       <c r="J13">
-        <v>0.9887244087575587</v>
+        <v>0.9927051345776211</v>
       </c>
       <c r="K13">
-        <v>1.0067762484518</v>
+        <v>1.010421157512461</v>
       </c>
       <c r="L13">
-        <v>0.98646824604918</v>
+        <v>0.9900475339059374</v>
       </c>
       <c r="M13">
-        <v>0.9358136797927603</v>
+        <v>0.9402575700147053</v>
       </c>
       <c r="N13">
-        <v>0.9995600203848088</v>
+        <v>1.00539799857429</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.015929633942864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.018522551781536</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01526352993446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582147149143218</v>
+        <v>0.9622636355527261</v>
       </c>
       <c r="D14">
-        <v>0.99225247869599</v>
+        <v>0.9958534366394034</v>
       </c>
       <c r="E14">
-        <v>0.9717086439901252</v>
+        <v>0.9752481667583898</v>
       </c>
       <c r="F14">
-        <v>0.9207521897383324</v>
+        <v>0.9251553836831851</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.033152932776593</v>
+        <v>1.034692376369311</v>
       </c>
       <c r="J14">
-        <v>0.9894737073254939</v>
+        <v>0.9933331852217613</v>
       </c>
       <c r="K14">
-        <v>1.007339158868087</v>
+        <v>1.010871049178627</v>
       </c>
       <c r="L14">
-        <v>0.9872022700451683</v>
+        <v>0.9906700699483196</v>
       </c>
       <c r="M14">
-        <v>0.9373603269907673</v>
+        <v>0.9416607297452396</v>
       </c>
       <c r="N14">
-        <v>0.9998212446193948</v>
+        <v>1.005496721228573</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.016329111980017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.018842244871375</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015366873173606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9589119156710753</v>
+        <v>0.9628817264938255</v>
       </c>
       <c r="D15">
-        <v>0.9927011825771143</v>
+        <v>0.9962314718264038</v>
       </c>
       <c r="E15">
-        <v>0.972267201896527</v>
+        <v>0.9757370801373743</v>
       </c>
       <c r="F15">
-        <v>0.9218302561579977</v>
+        <v>0.9261434333048165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.033297361524497</v>
+        <v>1.03480623114233</v>
       </c>
       <c r="J15">
-        <v>0.9899377204680797</v>
+        <v>0.9937235553305249</v>
       </c>
       <c r="K15">
-        <v>1.007689367836939</v>
+        <v>1.011152483701932</v>
       </c>
       <c r="L15">
-        <v>0.9876568212552926</v>
+        <v>0.9910569732669476</v>
       </c>
       <c r="M15">
-        <v>0.9383127807102561</v>
+        <v>0.9425262748380336</v>
       </c>
       <c r="N15">
-        <v>0.9999837225955287</v>
+        <v>1.005561258581857</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.016582756225627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.019047816746165</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015432027140954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628863450852125</v>
+        <v>0.9664291798604239</v>
       </c>
       <c r="D16">
-        <v>0.9952486360291565</v>
+        <v>0.9983937147050226</v>
       </c>
       <c r="E16">
-        <v>0.9754505327278493</v>
+        <v>0.9785454822090522</v>
       </c>
       <c r="F16">
-        <v>0.9279741969998437</v>
+        <v>0.9318036094661476</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.03410714259151</v>
+        <v>1.035450242563507</v>
       </c>
       <c r="J16">
-        <v>0.9925721909145486</v>
+        <v>0.9959598084479776</v>
       </c>
       <c r="K16">
-        <v>1.009667279283175</v>
+        <v>1.012755268596918</v>
       </c>
       <c r="L16">
-        <v>0.9902396189596891</v>
+        <v>0.9932753656774655</v>
       </c>
       <c r="M16">
-        <v>0.9437372767187061</v>
+        <v>0.9474832411036572</v>
       </c>
       <c r="N16">
-        <v>1.000901723418726</v>
+        <v>1.00596224811887</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.01798451322759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.020184608672126</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.015800556474773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9653356806010018</v>
+        <v>0.9686377224543343</v>
       </c>
       <c r="D17">
-        <v>0.9968209373079981</v>
+        <v>0.9997449256663175</v>
       </c>
       <c r="E17">
-        <v>0.9774152443331338</v>
+        <v>0.9802994705572993</v>
       </c>
       <c r="F17">
-        <v>0.9317473691631087</v>
+        <v>0.9353055208346799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.034602753591792</v>
+        <v>1.035851211785711</v>
       </c>
       <c r="J17">
-        <v>0.9941943682015744</v>
+        <v>0.9973568418099922</v>
       </c>
       <c r="K17">
-        <v>1.01088493756108</v>
+        <v>1.013757428738203</v>
       </c>
       <c r="L17">
-        <v>0.9918312034783827</v>
+        <v>0.9946619696755643</v>
       </c>
       <c r="M17">
-        <v>0.9470682012863583</v>
+        <v>0.9505516540995944</v>
       </c>
       <c r="N17">
-        <v>1.001466954735133</v>
+        <v>1.006249862408436</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.018848122689986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.0208960781048</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016031417929554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667363323947149</v>
+        <v>0.9699094607570096</v>
       </c>
       <c r="D18">
-        <v>0.9977152872086203</v>
+        <v>1.000519139416187</v>
       </c>
       <c r="E18">
-        <v>0.9785380961974216</v>
+        <v>0.9813098576874976</v>
       </c>
       <c r="F18">
-        <v>0.9339066546284487</v>
+        <v>0.9373199427050459</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.034880849784473</v>
+        <v>1.036078189163693</v>
       </c>
       <c r="J18">
-        <v>0.9951176991690731</v>
+        <v>0.998159513438724</v>
       </c>
       <c r="K18">
-        <v>1.011573574653565</v>
+        <v>1.014328917850481</v>
       </c>
       <c r="L18">
-        <v>0.992737867214847</v>
+        <v>0.9954591993989831</v>
       </c>
       <c r="M18">
-        <v>0.9489728812713799</v>
+        <v>0.9523160620749089</v>
       </c>
       <c r="N18">
-        <v>1.001786855306309</v>
+        <v>1.006427646903305</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.019323118759904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.021287114842877</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016161985860244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672213671562108</v>
+        <v>0.9703510648353186</v>
       </c>
       <c r="D19">
-        <v>0.9980294608923431</v>
+        <v>1.000792621848256</v>
       </c>
       <c r="E19">
-        <v>0.978928403606757</v>
+        <v>0.9816622722367155</v>
       </c>
       <c r="F19">
-        <v>0.934649066784829</v>
+        <v>0.938013659938047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.034980107528399</v>
+        <v>1.036160072162313</v>
       </c>
       <c r="J19">
-        <v>0.9954403272407265</v>
+        <v>0.9984414472605571</v>
       </c>
       <c r="K19">
-        <v>1.011817568734985</v>
+        <v>1.014533217567502</v>
       </c>
       <c r="L19">
-        <v>0.9930544933892462</v>
+        <v>0.995738939549397</v>
       </c>
       <c r="M19">
-        <v>0.9496287594195997</v>
+        <v>0.9529247628680946</v>
       </c>
       <c r="N19">
-        <v>1.001900045341465</v>
+        <v>1.006494152451007</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.019502179525496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.021438720496039</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016209666199445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9650734629240084</v>
+        <v>0.9684004282484335</v>
       </c>
       <c r="D20">
-        <v>0.9966520937529555</v>
+        <v>0.9995991285829964</v>
       </c>
       <c r="E20">
-        <v>0.9772046711693155</v>
+        <v>0.9801106846002748</v>
       </c>
       <c r="F20">
-        <v>0.9313443535238489</v>
+        <v>0.9349305287357269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.034549508798414</v>
+        <v>1.035807822298788</v>
       </c>
       <c r="J20">
-        <v>0.9940204582320913</v>
+        <v>0.9972062555012444</v>
       </c>
       <c r="K20">
-        <v>1.010754068621149</v>
+        <v>1.013649030495728</v>
       </c>
       <c r="L20">
-        <v>0.9916605522612387</v>
+        <v>0.9945125179525961</v>
       </c>
       <c r="M20">
-        <v>0.9467123364777192</v>
+        <v>0.9502229212582093</v>
       </c>
       <c r="N20">
-        <v>1.001406217222392</v>
+        <v>1.006217204741665</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.018754223211528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.020817940579917</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016006333644794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9578970852735921</v>
+        <v>0.9620158557194413</v>
       </c>
       <c r="D21">
-        <v>0.9920550265460517</v>
+        <v>0.9957133781087172</v>
       </c>
       <c r="E21">
-        <v>0.9714564186390535</v>
+        <v>0.9750590234248326</v>
       </c>
       <c r="F21">
-        <v>0.9202531729203757</v>
+        <v>0.9247342795260647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.033092123231075</v>
+        <v>1.034657125023651</v>
       </c>
       <c r="J21">
-        <v>0.9892670344678091</v>
+        <v>0.9931922334179786</v>
       </c>
       <c r="K21">
-        <v>1.007188498575663</v>
+        <v>1.010776419500607</v>
       </c>
       <c r="L21">
-        <v>0.9869995158768137</v>
+        <v>0.9905288340618792</v>
       </c>
       <c r="M21">
-        <v>0.9369211213922638</v>
+        <v>0.9412971257423092</v>
       </c>
       <c r="N21">
-        <v>0.9997512133121204</v>
+        <v>1.005544994073228</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.01623644813229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.018790489728605</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015348745807286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9532170355287621</v>
+        <v>0.9578624779719712</v>
       </c>
       <c r="D22">
-        <v>0.9890580955576066</v>
+        <v>0.993188066356318</v>
       </c>
       <c r="E22">
-        <v>0.9677155184874262</v>
+        <v>0.9717810856201962</v>
       </c>
       <c r="F22">
-        <v>0.912979101249353</v>
+        <v>0.9180658107349583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.032124930222819</v>
+        <v>1.033893641773144</v>
       </c>
       <c r="J22">
-        <v>0.9861573325855281</v>
+        <v>0.9905703816836283</v>
       </c>
       <c r="K22">
-        <v>1.004849475374616</v>
+        <v>1.008895687679352</v>
       </c>
       <c r="L22">
-        <v>0.9839548636905205</v>
+        <v>0.9879330866806095</v>
       </c>
       <c r="M22">
-        <v>0.9304968418984133</v>
+        <v>0.9354560817861091</v>
       </c>
       <c r="N22">
-        <v>0.9986659280558265</v>
+        <v>1.005090737921575</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.014568732797037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.017445567651794</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014914057952418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.955695990239855</v>
+        <v>0.9600395372663137</v>
       </c>
       <c r="D23">
-        <v>0.9906375305150569</v>
+        <v>0.9945004703418426</v>
       </c>
       <c r="E23">
-        <v>0.969693753530196</v>
+        <v>0.9734929164007505</v>
       </c>
       <c r="F23">
-        <v>0.9168450289614494</v>
+        <v>0.9215847371971617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.032633064686311</v>
+        <v>1.034285978090741</v>
       </c>
       <c r="J23">
-        <v>0.9878000301007088</v>
+        <v>0.9919333107560111</v>
       </c>
       <c r="K23">
-        <v>1.00607959815144</v>
+        <v>1.009866308926239</v>
       </c>
       <c r="L23">
-        <v>0.985563101320643</v>
+        <v>0.9892829529631879</v>
       </c>
       <c r="M23">
-        <v>0.9339094599108029</v>
+        <v>0.9385344697126113</v>
       </c>
       <c r="N23">
-        <v>0.999236792120835</v>
+        <v>1.005280667909798</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.015428633058972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.018121042480193</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01513551081583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9651647792380218</v>
+        <v>0.968483702995127</v>
       </c>
       <c r="D24">
-        <v>0.9966992146285711</v>
+        <v>0.9996385778513956</v>
       </c>
       <c r="E24">
-        <v>0.9772744675337571</v>
+        <v>0.9801736013340563</v>
       </c>
       <c r="F24">
-        <v>0.9314972008510612</v>
+        <v>0.9350742039444513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.034559511706102</v>
+        <v>1.035814803352408</v>
       </c>
       <c r="J24">
-        <v>0.9940730163022309</v>
+        <v>0.99725134905208</v>
       </c>
       <c r="K24">
-        <v>1.010784544777013</v>
+        <v>1.013672043441855</v>
       </c>
       <c r="L24">
-        <v>0.9917127790816104</v>
+        <v>0.9945580725944214</v>
       </c>
       <c r="M24">
-        <v>0.9468444894737092</v>
+        <v>0.9503462263729426</v>
       </c>
       <c r="N24">
-        <v>1.001420764234057</v>
+        <v>1.006222761476476</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.018747723023664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.020803526949923</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01600906719052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9755634891768132</v>
+        <v>0.9780744171539563</v>
       </c>
       <c r="D25">
-        <v>1.003385495164997</v>
+        <v>1.005539869027582</v>
       </c>
       <c r="E25">
-        <v>0.9856380565581687</v>
+        <v>0.9878370142957732</v>
       </c>
       <c r="F25">
-        <v>0.9474245410233406</v>
+        <v>0.9500976290919635</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.036626049273816</v>
+        <v>1.037549909996083</v>
       </c>
       <c r="J25">
-        <v>1.000942184412988</v>
+        <v>1.003362885191615</v>
       </c>
       <c r="K25">
-        <v>1.015931482036344</v>
+        <v>1.018052790100981</v>
       </c>
       <c r="L25">
-        <v>0.9984634912147187</v>
+        <v>1.000627125781482</v>
       </c>
       <c r="M25">
-        <v>0.9608978121518663</v>
+        <v>0.9635233842542936</v>
       </c>
       <c r="N25">
-        <v>1.003811469305242</v>
+        <v>1.007860684736306</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.022384093730134</v>
+        <v>1.02389779088857</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017020176992398</v>
       </c>
     </row>
   </sheetData>
